--- a/askui/test-data/values.xlsx
+++ b/askui/test-data/values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yana-gusti/WebstormProjects/cypress/askui/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E93C3-23CD-474E-914A-AD66A2C68D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94880C16-2C01-D747-B816-25F2F7D52667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F13DB1B3-358A-1B4D-9F07-704D7B7B0E12}"/>
   </bookViews>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Numbers</t>
   </si>
   <si>
     <t>Symbols</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,8 +473,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
